--- a/talabalar2222.xlsx
+++ b/talabalar2222.xlsx
@@ -632,7 +632,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Koreya xalqaro universiteti talabalari kontingentining 2024-03-11 holati haqida umumiy ma'lumot</t>
+          <t>Koreya xalqaro universiteti talabalari kontingentining 2024-03-13 holati haqida umumiy ma'lumot</t>
         </is>
       </c>
     </row>
